--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -489,7 +489,7 @@
       <c r="C2" s="4" t="n">
         <v>5.95</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>5.355</v>
       </c>
     </row>
@@ -503,7 +503,7 @@
       <c r="C3" s="4" t="n">
         <v>6.95</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>6.255</v>
       </c>
     </row>
@@ -517,7 +517,7 @@
       <c r="C4" s="4" t="n">
         <v>7.95</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>7.155</v>
       </c>
     </row>
